--- a/src/test/resources/Exceldata/excel.xlsx
+++ b/src/test/resources/Exceldata/excel.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_thi\eclipse-workspace\dsalgoCoders\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E584EAE7-D296-4010-8D77-F7743B30588F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9CA692-BC7D-47BE-AAD6-FA437962CDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9F8645A8-6047-4B8E-99ED-4E754F406B2F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9F8645A8-6047-4B8E-99ED-4E754F406B2F}"/>
   </bookViews>
   <sheets>
     <sheet name="userdetails" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Pythoncode" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
   <si>
     <t>username</t>
   </si>
@@ -64,6 +64,273 @@
   </si>
   <si>
     <t>vimala</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>print("Valid Time Complexity Code")</t>
+  </si>
+  <si>
+    <t>Valid Time Complexity Code</t>
+  </si>
+  <si>
+    <t>print("Invalid Time Complexity Code)</t>
+  </si>
+  <si>
+    <t>SyntaxError: bad input on line 1</t>
+  </si>
+  <si>
+    <t>print("Linked List Introduction")</t>
+  </si>
+  <si>
+    <t>Linked List Introduction</t>
+  </si>
+  <si>
+    <t>print("Linked List)</t>
+  </si>
+  <si>
+    <t>print("Creating Linked List")</t>
+  </si>
+  <si>
+    <t>Creating Linked List</t>
+  </si>
+  <si>
+    <t>print("Types of Linked List")</t>
+  </si>
+  <si>
+    <t>Types of Linked List</t>
+  </si>
+  <si>
+    <t>print("Implement Linked List in Python")</t>
+  </si>
+  <si>
+    <t>Implement Linked List in Python</t>
+  </si>
+  <si>
+    <t>print("Traversal")</t>
+  </si>
+  <si>
+    <t>Traversal</t>
+  </si>
+  <si>
+    <t>print("Insertion")</t>
+  </si>
+  <si>
+    <t>Insertion</t>
+  </si>
+  <si>
+    <t>print("Deletion")</t>
+  </si>
+  <si>
+    <t>Deletion</t>
+  </si>
+  <si>
+    <t>print("Overview of Trees")</t>
+  </si>
+  <si>
+    <t>Overview of Trees</t>
+  </si>
+  <si>
+    <t>print("Tree)</t>
+  </si>
+  <si>
+    <t>print("Terminologies")</t>
+  </si>
+  <si>
+    <t>Terminologies</t>
+  </si>
+  <si>
+    <t>print("Types of Trees")</t>
+  </si>
+  <si>
+    <t>Types of Trees</t>
+  </si>
+  <si>
+    <t>print("Tree Traversals")</t>
+  </si>
+  <si>
+    <t>Tree Traversals</t>
+  </si>
+  <si>
+    <t>print("Traversals-Illustration")</t>
+  </si>
+  <si>
+    <t>Traversals-Illustration</t>
+  </si>
+  <si>
+    <t>print("Binary Trees")</t>
+  </si>
+  <si>
+    <t>Binary Trees</t>
+  </si>
+  <si>
+    <t>print("Types of Binary Trees")</t>
+  </si>
+  <si>
+    <t>Types of Binary Trees</t>
+  </si>
+  <si>
+    <t>print("Implementation in Python")</t>
+  </si>
+  <si>
+    <t>Implementation in Python</t>
+  </si>
+  <si>
+    <t>print("Binary Tree Traversals")</t>
+  </si>
+  <si>
+    <t>Binary Tree Traversals</t>
+  </si>
+  <si>
+    <t>print("Implementation of Binary Trees")</t>
+  </si>
+  <si>
+    <t>Implementation of Binary Trees</t>
+  </si>
+  <si>
+    <t>print("Applications of Binary trees")</t>
+  </si>
+  <si>
+    <t>Applications of Binary trees</t>
+  </si>
+  <si>
+    <t>print("Binary Search Trees")</t>
+  </si>
+  <si>
+    <t>Binary Search Trees</t>
+  </si>
+  <si>
+    <t>print("Implementation Of BST")</t>
+  </si>
+  <si>
+    <t>Implementation Of BST</t>
+  </si>
+  <si>
+    <t>print("Graph")</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>print("Graph)</t>
+  </si>
+  <si>
+    <t>print("Graph Representations")</t>
+  </si>
+  <si>
+    <t>Graph Representations</t>
+  </si>
+  <si>
+    <t>print("Valid Arrays in Python Code")</t>
+  </si>
+  <si>
+    <t>Valid Arrays in Python Code</t>
+  </si>
+  <si>
+    <t>print("Invalid Arrays Code)</t>
+  </si>
+  <si>
+    <t>print("Valid Arrays Using List Code")</t>
+  </si>
+  <si>
+    <t>Valid Arrays Using List Code</t>
+  </si>
+  <si>
+    <t>print("Valid Basic Operations in Lists Code")</t>
+  </si>
+  <si>
+    <t>Valid Basic Operations in Lists Code</t>
+  </si>
+  <si>
+    <t>print("Valid Applications of Array Code")</t>
+  </si>
+  <si>
+    <t>Valid Applications of Array Code</t>
+  </si>
+  <si>
+    <t>print("Valid Search the Array Code")</t>
+  </si>
+  <si>
+    <t>Valid Search the Array Code</t>
+  </si>
+  <si>
+    <t>print("Invalid Practice Questions Code)</t>
+  </si>
+  <si>
+    <t>print("Submitting Practice Questions Code")</t>
+  </si>
+  <si>
+    <t>Submission Successful</t>
+  </si>
+  <si>
+    <t>print("Valid Max Consecutive Ones Code")</t>
+  </si>
+  <si>
+    <t>Valid Max Consecutive Ones Code</t>
+  </si>
+  <si>
+    <t>print("Valid Find Numbers with Even Numbers of Digits Code")</t>
+  </si>
+  <si>
+    <t>Valid Find Numbers with Even Numbers of Digits Code</t>
+  </si>
+  <si>
+    <t>print("Valid Squares of a Sorted Array Code")</t>
+  </si>
+  <si>
+    <t>Valid Squares of a Sorted Array Code</t>
+  </si>
+  <si>
+    <t>print("Valid Implementation of Queue in Python Code")</t>
+  </si>
+  <si>
+    <t>Valid Implementation of Queue in Python Code</t>
+  </si>
+  <si>
+    <t>print("Invalid Queue Code)</t>
+  </si>
+  <si>
+    <t>print("Valid Implementation using collections.deque Code")</t>
+  </si>
+  <si>
+    <t>Valid Implementation using collections.deque Code</t>
+  </si>
+  <si>
+    <t>print("Valid Implementation using array Code")</t>
+  </si>
+  <si>
+    <t>Valid Implementation using array Code</t>
+  </si>
+  <si>
+    <t>print("Valid Queue Operations Code")</t>
+  </si>
+  <si>
+    <t>Valid Queue Operations Code</t>
+  </si>
+  <si>
+    <t>print("Valid Operations in Stack")</t>
+  </si>
+  <si>
+    <t>Valid Operations in Stack</t>
+  </si>
+  <si>
+    <t>print("Invalid stack Code)</t>
+  </si>
+  <si>
+    <t>print("Valid Implementation")</t>
+  </si>
+  <si>
+    <t>Valid Implementation</t>
+  </si>
+  <si>
+    <t>print("Valid Applications")</t>
+  </si>
+  <si>
+    <t>Valid Applications</t>
   </si>
 </sst>
 </file>
@@ -417,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB082D9-B65F-43D5-8FE8-9B6516CC5E24}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -491,12 +758,403 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E0ECC9-D6A1-44F9-B064-D8C5097983DE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection sqref="A1:B48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="53.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Exceldata/excel.xlsx
+++ b/src/test/resources/Exceldata/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_thi\eclipse-workspace\dsalgoCoders\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9CA692-BC7D-47BE-AAD6-FA437962CDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A80A6F1-DA9E-4798-8D60-72F91EBEB280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9F8645A8-6047-4B8E-99ED-4E754F406B2F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9F8645A8-6047-4B8E-99ED-4E754F406B2F}"/>
   </bookViews>
   <sheets>
     <sheet name="userdetails" sheetId="1" r:id="rId1"/>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB082D9-B65F-43D5-8FE8-9B6516CC5E24}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E0ECC9-D6A1-44F9-B064-D8C5097983DE}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection sqref="A1:B48"/>
     </sheetView>
   </sheetViews>
